--- a/_progetto heart_failure (SWI-Prolog)/Grafici_Accuratezza/Grafici_accuratezza.xlsx
+++ b/_progetto heart_failure (SWI-Prolog)/Grafici_Accuratezza/Grafici_accuratezza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\IA_project\_progetto heart_failure (SWI-Prolog)\Grafici_Accuratezza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E8B226-712A-4936-9547-9E9B26769830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3CB690-EF90-42BF-8855-F1DDE085E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D22D39D3-FFD7-471A-864B-D6E71F4BC6E8}"/>
+    <workbookView xWindow="-15645" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{D22D39D3-FFD7-471A-864B-D6E71F4BC6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Percentuale Training</t>
   </si>
@@ -45,7 +45,10 @@
     <t>Accuratezza Gini</t>
   </si>
   <si>
-    <t>Errore</t>
+    <t>Errore Entropia</t>
+  </si>
+  <si>
+    <t>Errore Gini</t>
   </si>
 </sst>
 </file>
@@ -871,6 +874,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Accuratezza</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,7 +1028,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.74927953890489896</c:v>
@@ -1163,7 +1191,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.736091298145506</c:v>
@@ -1229,6 +1257,714 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0F46-4C94-BA16-1493C889E4D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="971323904"/>
+        <c:axId val="971324736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="971323904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="95"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>% Training Set</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971324736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="971324736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Accuratezza Test Set</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971323904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuratezza Gini</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74927953890489896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71559633027522895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69243156199677902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69503546099290703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66728971962616801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77185501066097995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75813953488371999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76412776412776395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78729281767955805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76298701298701299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65836298932384296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82995951417003999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84905660377358405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83908045977011403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84507042253521103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87378640776699001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83823529411764697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86111111111111105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2466-4EDE-A8DC-6873F839FD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accuratezza Entropia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.736091298145506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71299093655589096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75662251655629098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69284467713787001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76998050682261199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77938144329896897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73953488372093001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79381443298969001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78116343490304696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78005865102639205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75974025974025905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79607843137254897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81465517241379304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83018867924528295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85227272727272696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.879432624113475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85576923076922995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82089552238805896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88888888888888795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2466-4EDE-A8DC-6873F839FD1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1514,7 +2250,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1529,6 +2265,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Errore</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1568,7 +2329,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Accuratezza Gini</c:v>
+            <c:v>Errore Gini</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1653,69 +2414,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$2:$C$21</c:f>
+              <c:f>Foglio1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74927953890489896</c:v>
+                  <c:v>0.25072046109509999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71559633027522895</c:v>
+                  <c:v>0.28440366972476999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69243156199677902</c:v>
+                  <c:v>0.30756843800321998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69503546099290703</c:v>
+                  <c:v>0.30496453900709197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66728971962616801</c:v>
+                  <c:v>0.33271028037383099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77185501066097995</c:v>
+                  <c:v>0.228144989339019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75813953488371999</c:v>
+                  <c:v>0.24186046511627901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76412776412776395</c:v>
+                  <c:v>0.23587223587223499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78729281767955805</c:v>
+                  <c:v>0.212707182320441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76298701298701299</c:v>
+                  <c:v>0.23701298701298701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65836298932384296</c:v>
+                  <c:v>0.34163701067615598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82995951417003999</c:v>
+                  <c:v>0.17004048582995901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84905660377358405</c:v>
+                  <c:v>0.15094339622641501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83908045977011403</c:v>
+                  <c:v>0.160919540229885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84507042253521103</c:v>
+                  <c:v>0.154929577464788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.87378640776699001</c:v>
+                  <c:v>0.12621359223300899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.83823529411764697</c:v>
+                  <c:v>0.16176470588235201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86111111111111105</c:v>
+                  <c:v>0.13888888888888801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +2484,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2466-4EDE-A8DC-6873F839FD1D}"/>
+              <c16:uniqueId val="{00000000-28F3-443E-AE4A-3853167C7B5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1731,7 +2492,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Accuratezza Entropia</c:v>
+            <c:v>Errore Entropia</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1816,69 +2577,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$B$21</c:f>
+              <c:f>Foglio1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.736091298145506</c:v>
+                  <c:v>0.263908701854493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71299093655589096</c:v>
+                  <c:v>0.28700906344410798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75662251655629098</c:v>
+                  <c:v>0.24337748344370799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69284467713787001</c:v>
+                  <c:v>0.30715532286212899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76998050682261199</c:v>
+                  <c:v>0.23001949317738701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77938144329896897</c:v>
+                  <c:v>0.22061855670103001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73953488372093001</c:v>
+                  <c:v>0.26046511627906899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79381443298969001</c:v>
+                  <c:v>0.20618556701030899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78116343490304696</c:v>
+                  <c:v>0.21883656509695201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78005865102639205</c:v>
+                  <c:v>0.21994134897360701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75974025974025905</c:v>
+                  <c:v>0.24025974025974001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79607843137254897</c:v>
+                  <c:v>0.20392156862745101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81465517241379304</c:v>
+                  <c:v>0.18534482758620599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83018867924528295</c:v>
+                  <c:v>0.169811320754716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85227272727272696</c:v>
+                  <c:v>0.14772727272727201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.879432624113475</c:v>
+                  <c:v>0.120567375886524</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85576923076922995</c:v>
+                  <c:v>0.144230769230769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82089552238805896</c:v>
+                  <c:v>0.17910447761194001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88888888888888795</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +2647,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2466-4EDE-A8DC-6873F839FD1D}"/>
+              <c16:uniqueId val="{00000001-28F3-443E-AE4A-3853167C7B5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1925,6 +2686,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>% Training Set</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2019,6 +2805,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Errore Test Set</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2332,6 +3143,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3881,6 +4732,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4401,15 +5768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>488497</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>139472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>183697</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>25172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4543,6 +5910,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>170489</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEC6A1A-ECE6-4F66-8B1C-595FD948A2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4850,16 +6255,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA744856-B62E-41C0-87BD-23DF8726BC1A}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4876,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4884,10 +6289,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,6 +6311,12 @@
       <c r="C3" s="1">
         <v>0.74927953890489896</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.263908701854493</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25072046109509999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4911,6 +6328,12 @@
       <c r="C4" s="1">
         <v>0.71559633027522895</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.28700906344410798</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.28440366972476999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4922,6 +6345,12 @@
       <c r="C5" s="1">
         <v>0.69243156199677902</v>
       </c>
+      <c r="D5" s="1">
+        <v>0.24337748344370799</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.30756843800321998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4933,6 +6362,12 @@
       <c r="C6" s="1">
         <v>0.69503546099290703</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.30715532286212899</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.30496453900709197</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4944,6 +6379,12 @@
       <c r="C7" s="1">
         <v>0.66728971962616801</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.23001949317738701</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.33271028037383099</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4955,6 +6396,12 @@
       <c r="C8" s="1">
         <v>0.77185501066097995</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.22061855670103001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.228144989339019</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4966,6 +6413,12 @@
       <c r="C9" s="1">
         <v>0.75813953488371999</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.26046511627906899</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.24186046511627901</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4977,6 +6430,12 @@
       <c r="C10" s="1">
         <v>0.76412776412776395</v>
       </c>
+      <c r="D10" s="1">
+        <v>0.20618556701030899</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.23587223587223499</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4988,6 +6447,12 @@
       <c r="C11" s="1">
         <v>0.78729281767955805</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.21883656509695201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.212707182320441</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4999,6 +6464,12 @@
       <c r="C12" s="1">
         <v>0.8</v>
       </c>
+      <c r="D12" s="1">
+        <v>0.21994134897360701</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.19999999999999901</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5010,6 +6481,12 @@
       <c r="C13" s="1">
         <v>0.76298701298701299</v>
       </c>
+      <c r="D13" s="1">
+        <v>0.24025974025974001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.23701298701298701</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5021,6 +6498,12 @@
       <c r="C14" s="1">
         <v>0.65836298932384296</v>
       </c>
+      <c r="D14" s="1">
+        <v>0.20392156862745101</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.34163701067615598</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5032,6 +6515,12 @@
       <c r="C15" s="1">
         <v>0.82995951417003999</v>
       </c>
+      <c r="D15" s="1">
+        <v>0.18534482758620599</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.17004048582995901</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5043,8 +6532,14 @@
       <c r="C16" s="1">
         <v>0.84905660377358405</v>
       </c>
+      <c r="D16" s="1">
+        <v>0.169811320754716</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.15094339622641501</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>75</v>
       </c>
@@ -5054,8 +6549,14 @@
       <c r="C17" s="1">
         <v>0.83908045977011403</v>
       </c>
+      <c r="D17" s="1">
+        <v>0.14772727272727201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.160919540229885</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -5065,8 +6566,14 @@
       <c r="C18" s="1">
         <v>0.84507042253521103</v>
       </c>
+      <c r="D18" s="1">
+        <v>0.120567375886524</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.154929577464788</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -5076,8 +6583,14 @@
       <c r="C19" s="1">
         <v>0.87378640776699001</v>
       </c>
+      <c r="D19" s="1">
+        <v>0.144230769230769</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.12621359223300899</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -5087,8 +6600,14 @@
       <c r="C20" s="1">
         <v>0.83823529411764697</v>
       </c>
+      <c r="D20" s="1">
+        <v>0.17910447761194001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.16176470588235201</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -5097,6 +6616,12 @@
       </c>
       <c r="C21" s="1">
         <v>0.86111111111111105</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.13888888888888801</v>
       </c>
     </row>
   </sheetData>
